--- a/terms.xlsx
+++ b/terms.xlsx
@@ -20,17 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">inappropriate</t>
   </si>
   <si>
+    <t xml:space="preserve">incorrect</t>
+  </si>
+  <si>
     <t xml:space="preserve">postop</t>
   </si>
   <si>
     <t xml:space="preserve"> spot</t>
   </si>
   <si>
+    <t xml:space="preserve">skull</t>
+  </si>
+  <si>
     <t xml:space="preserve"> nail</t>
   </si>
   <si>
@@ -43,18 +49,18 @@
     <t xml:space="preserve">intraoperative</t>
   </si>
   <si>
+    <t xml:space="preserve">button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spot </t>
+  </si>
+  <si>
     <t xml:space="preserve">epiphysiodesis</t>
   </si>
   <si>
-    <t xml:space="preserve">skull</t>
-  </si>
-  <si>
     <t xml:space="preserve">fixated</t>
   </si>
   <si>
-    <t xml:space="preserve">spot </t>
-  </si>
-  <si>
     <t xml:space="preserve">fixation</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t xml:space="preserve">healing</t>
   </si>
   <si>
+    <t xml:space="preserve">interference</t>
+  </si>
+  <si>
     <t xml:space="preserve">internal</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t xml:space="preserve">procedure</t>
   </si>
   <si>
+    <t xml:space="preserve">reconstruct</t>
+  </si>
+  <si>
     <t xml:space="preserve">screw</t>
   </si>
   <si>
@@ -92,12 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">treated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button</t>
   </si>
 </sst>
 </file>
@@ -276,142 +282,155 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="12.5102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.7755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="12.6989795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
+      <c r="A6" s="0"/>
+      <c r="B6" s="7"/>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1" t="s">
-        <v>12</v>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1" t="s">
-        <v>13</v>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1" t="s">
-        <v>14</v>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="8" t="s">
-        <v>15</v>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1" t="s">
-        <v>16</v>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="8" t="s">
-        <v>17</v>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1" t="s">
-        <v>18</v>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1" t="s">
-        <v>1</v>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1" t="s">
-        <v>19</v>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1" t="s">
-        <v>20</v>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1" t="s">
-        <v>21</v>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="s">
-        <v>22</v>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1" t="s">
-        <v>23</v>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1" t="s">
-        <v>24</v>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1" t="s">
-        <v>25</v>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/terms.xlsx
+++ b/terms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">inappropriate</t>
   </si>
@@ -73,9 +73,6 @@
     <t xml:space="preserve">interference</t>
   </si>
   <si>
-    <t xml:space="preserve">internal</t>
-  </si>
-  <si>
     <t xml:space="preserve">nail </t>
   </si>
   <si>
@@ -101,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">surgical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treated</t>
   </si>
 </sst>
 </file>
@@ -282,19 +276,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.7755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="12.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="12.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,6 +336,7 @@
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="0"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -374,33 +369,33 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,16 +416,6 @@
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
